--- a/Code/Results/Cases/Case_7_19/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_19/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.869090591706026</v>
+        <v>3.869090591705799</v>
       </c>
       <c r="C2">
-        <v>1.104745911582114</v>
+        <v>1.104745911582341</v>
       </c>
       <c r="D2">
-        <v>0.3278482989887834</v>
+        <v>0.3278482989886555</v>
       </c>
       <c r="E2">
-        <v>1.498654169906246</v>
+        <v>1.49865416990626</v>
       </c>
       <c r="F2">
-        <v>6.635873520255586</v>
+        <v>6.635873520255501</v>
       </c>
       <c r="G2">
-        <v>0.0007437127231748271</v>
+        <v>0.0007437127231881835</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.292915343289337</v>
+        <v>3.292915343289394</v>
       </c>
       <c r="C3">
         <v>0.9385230912516533</v>
       </c>
       <c r="D3">
-        <v>0.2856247266612826</v>
+        <v>0.2856247266609131</v>
       </c>
       <c r="E3">
-        <v>1.266429032206716</v>
+        <v>1.266429032206858</v>
       </c>
       <c r="F3">
-        <v>5.740628530079675</v>
+        <v>5.740628530079647</v>
       </c>
       <c r="G3">
-        <v>0.0007578030578936477</v>
+        <v>0.0007578030578985436</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.951327824156863</v>
+        <v>2.95132782415709</v>
       </c>
       <c r="C4">
-        <v>0.8401863449115297</v>
+        <v>0.8401863449112454</v>
       </c>
       <c r="D4">
-        <v>0.2607697280726171</v>
+        <v>0.2607697280726313</v>
       </c>
       <c r="E4">
-        <v>1.130126361199359</v>
+        <v>1.130126361199302</v>
       </c>
       <c r="F4">
         <v>5.211660616999438</v>
       </c>
       <c r="G4">
-        <v>0.0007665192321234379</v>
+        <v>0.0007665192321175581</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.814651053569719</v>
+        <v>2.814651053569605</v>
       </c>
       <c r="C5">
-        <v>0.800873799841753</v>
+        <v>0.8008737998413835</v>
       </c>
       <c r="D5">
-        <v>0.2508628126613388</v>
+        <v>0.2508628126615662</v>
       </c>
       <c r="E5">
-        <v>1.075863128695502</v>
+        <v>1.075863128695559</v>
       </c>
       <c r="F5">
         <v>5.00042711176323</v>
       </c>
       <c r="G5">
-        <v>0.0007700955536178398</v>
+        <v>0.0007700955536774233</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.79209413057356</v>
+        <v>2.792094130573275</v>
       </c>
       <c r="C6">
-        <v>0.7943873037310141</v>
+        <v>0.7943873037302183</v>
       </c>
       <c r="D6">
-        <v>0.2492299167691243</v>
+        <v>0.2492299167689964</v>
       </c>
       <c r="E6">
-        <v>1.06692236783033</v>
+        <v>1.066922367830301</v>
       </c>
       <c r="F6">
-        <v>4.965589858726503</v>
+        <v>4.965589858726446</v>
       </c>
       <c r="G6">
-        <v>0.0007706910879994282</v>
+        <v>0.0007706910879488078</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.949474991802958</v>
+        <v>2.949474991802788</v>
       </c>
       <c r="C7">
-        <v>0.8396532948890183</v>
+        <v>0.8396532948884499</v>
       </c>
       <c r="D7">
-        <v>0.2606352797068183</v>
+        <v>0.2606352797065625</v>
       </c>
       <c r="E7">
-        <v>1.12938971838085</v>
+        <v>1.129389718380892</v>
       </c>
       <c r="F7">
         <v>5.2087954061559</v>
       </c>
       <c r="G7">
-        <v>0.0007665673550339016</v>
+        <v>0.0007665673550295595</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.667541012287586</v>
+        <v>3.667541012287643</v>
       </c>
       <c r="C8">
-        <v>1.046543339691681</v>
+        <v>1.046543339692022</v>
       </c>
       <c r="D8">
-        <v>0.3130363585851654</v>
+        <v>0.3130363585852649</v>
       </c>
       <c r="E8">
-        <v>1.417080811465283</v>
+        <v>1.417080811465297</v>
       </c>
       <c r="F8">
-        <v>6.322315476670241</v>
+        <v>6.322315476670383</v>
       </c>
       <c r="G8">
-        <v>0.0007485629913020318</v>
+        <v>0.0007485629913835881</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.202712292611238</v>
+        <v>5.202712292611352</v>
       </c>
       <c r="C9">
-        <v>1.491766529191182</v>
+        <v>1.49176652919158</v>
       </c>
       <c r="D9">
-        <v>0.4269393464068401</v>
+        <v>0.4269393464068685</v>
       </c>
       <c r="E9">
         <v>2.048269869642965</v>
       </c>
       <c r="F9">
-        <v>8.719465186564662</v>
+        <v>8.719465186564577</v>
       </c>
       <c r="G9">
-        <v>0.0007133136490371082</v>
+        <v>0.0007133136490426167</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.463671731928514</v>
+        <v>6.463671731928457</v>
       </c>
       <c r="C10">
-        <v>1.861408775469386</v>
+        <v>1.86140877546984</v>
       </c>
       <c r="D10">
-        <v>0.5222620816063852</v>
+        <v>0.5222620816064136</v>
       </c>
       <c r="E10">
-        <v>2.58535190610182</v>
+        <v>2.585351906101806</v>
       </c>
       <c r="F10">
         <v>10.70012950174964</v>
       </c>
       <c r="G10">
-        <v>0.0006866164721669267</v>
+        <v>0.0006866164722724575</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.084470990766306</v>
+        <v>7.08447099076642</v>
       </c>
       <c r="C11">
-        <v>2.044950820287738</v>
+        <v>2.044950820287681</v>
       </c>
       <c r="D11">
-        <v>0.5697417279158685</v>
+        <v>0.5697417279151011</v>
       </c>
       <c r="E11">
-        <v>2.856771504377107</v>
+        <v>2.856771504377079</v>
       </c>
       <c r="F11">
-        <v>11.67785285994654</v>
+        <v>11.67785285994677</v>
       </c>
       <c r="G11">
-        <v>0.0006740234843834092</v>
+        <v>0.0006740234844669336</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.328571152714403</v>
+        <v>7.328571152714005</v>
       </c>
       <c r="C12">
-        <v>2.117427780801165</v>
+        <v>2.117427780801791</v>
       </c>
       <c r="D12">
-        <v>0.5885073197272561</v>
+        <v>0.5885073197268866</v>
       </c>
       <c r="E12">
-        <v>2.964870090642847</v>
+        <v>2.964870090642719</v>
       </c>
       <c r="F12">
-        <v>12.06264309303941</v>
+        <v>12.06264309303918</v>
       </c>
       <c r="G12">
-        <v>0.0006691567473017781</v>
+        <v>0.0006691567473187108</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.275554054881013</v>
+        <v>7.275554054881354</v>
       </c>
       <c r="C13">
-        <v>2.101670983166855</v>
+        <v>2.101670983166912</v>
       </c>
       <c r="D13">
-        <v>0.5844269630629526</v>
+        <v>0.58442696306318</v>
       </c>
       <c r="E13">
-        <v>2.941323476956157</v>
+        <v>2.9413234769562</v>
       </c>
       <c r="F13">
         <v>11.97905445325642</v>
       </c>
       <c r="G13">
-        <v>0.0006702099212977999</v>
+        <v>0.000670209921296639</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.104356758335769</v>
+        <v>7.104356758335484</v>
       </c>
       <c r="C14">
-        <v>2.050848538597108</v>
+        <v>2.050848538597563</v>
       </c>
       <c r="D14">
-        <v>0.5712684574921525</v>
+        <v>0.5712684574924367</v>
       </c>
       <c r="E14">
-        <v>2.865547999806012</v>
+        <v>2.865547999805955</v>
       </c>
       <c r="F14">
-        <v>11.70919345391189</v>
+        <v>11.70919345391184</v>
       </c>
       <c r="G14">
-        <v>0.0006736252980051558</v>
+        <v>0.0006736252979270636</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>7.000748072547253</v>
       </c>
       <c r="C15">
-        <v>2.020133084844588</v>
+        <v>2.020133084845099</v>
       </c>
       <c r="D15">
-        <v>0.5633178486194765</v>
+        <v>0.5633178486193913</v>
       </c>
       <c r="E15">
-        <v>2.81987799452429</v>
+        <v>2.819877994524234</v>
       </c>
       <c r="F15">
-        <v>11.5459164336616</v>
+        <v>11.54591643366132</v>
       </c>
       <c r="G15">
-        <v>0.0006757033355527343</v>
+        <v>0.0006757033356953674</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.42422365465427</v>
+        <v>6.424223654654156</v>
       </c>
       <c r="C16">
-        <v>1.849782383922275</v>
+        <v>1.849782383922218</v>
       </c>
       <c r="D16">
-        <v>0.5192570740193219</v>
+        <v>0.5192570740188955</v>
       </c>
       <c r="E16">
-        <v>2.568268379124845</v>
+        <v>2.568268379124973</v>
       </c>
       <c r="F16">
-        <v>10.6380499806441</v>
+        <v>10.63804998064421</v>
       </c>
       <c r="G16">
-        <v>0.000687427829652048</v>
+        <v>0.0006874278298682925</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.083985265651449</v>
+        <v>6.083985265651791</v>
       </c>
       <c r="C17">
-        <v>1.749679255050523</v>
+        <v>1.749679255050467</v>
       </c>
       <c r="D17">
         <v>0.4933995490308121</v>
       </c>
       <c r="E17">
-        <v>2.421703187807381</v>
+        <v>2.421703187807367</v>
       </c>
       <c r="F17">
         <v>10.10289414216473</v>
       </c>
       <c r="G17">
-        <v>0.0006944852372362024</v>
+        <v>0.0006944852373501378</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.892560823670806</v>
+        <v>5.892560823670976</v>
       </c>
       <c r="C18">
-        <v>1.693493160133983</v>
+        <v>1.693493160134778</v>
       </c>
       <c r="D18">
-        <v>0.4788997599788729</v>
+        <v>0.478899759978674</v>
       </c>
       <c r="E18">
-        <v>2.339843746202718</v>
+        <v>2.339843746202632</v>
       </c>
       <c r="F18">
         <v>9.802041018714277</v>
       </c>
       <c r="G18">
-        <v>0.0006985048257353326</v>
+        <v>0.0006985048256222988</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.828425562120913</v>
+        <v>5.82842556212114</v>
       </c>
       <c r="C19">
-        <v>1.674689419313097</v>
+        <v>1.674689419313438</v>
       </c>
       <c r="D19">
-        <v>0.4740495448538127</v>
+        <v>0.4740495448540401</v>
       </c>
       <c r="E19">
-        <v>2.312511968272247</v>
+        <v>2.312511968272219</v>
       </c>
       <c r="F19">
-        <v>9.701283292199093</v>
+        <v>9.701283292199179</v>
       </c>
       <c r="G19">
-        <v>0.0006998598193207507</v>
+        <v>0.0006998598192032284</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.119748412428521</v>
+        <v>6.119748412428123</v>
       </c>
       <c r="C20">
-        <v>1.760186838715242</v>
+        <v>1.760186838715185</v>
       </c>
       <c r="D20">
-        <v>0.4961123540600454</v>
+        <v>0.4961123540601875</v>
       </c>
       <c r="E20">
-        <v>2.437044104630701</v>
+        <v>2.437044104630644</v>
       </c>
       <c r="F20">
-        <v>10.15912097007683</v>
+        <v>10.159120970077</v>
       </c>
       <c r="G20">
-        <v>0.0006937382734164936</v>
+        <v>0.000693738273414189</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.154374863364978</v>
+        <v>7.154374863364865</v>
       </c>
       <c r="C21">
-        <v>2.065688090290735</v>
+        <v>2.065688090290678</v>
       </c>
       <c r="D21">
-        <v>0.5751101848299811</v>
+        <v>0.5751101848302937</v>
       </c>
       <c r="E21">
-        <v>2.88764648423529</v>
+        <v>2.887646484235418</v>
       </c>
       <c r="F21">
-        <v>11.78802886964701</v>
+        <v>11.78802886964689</v>
       </c>
       <c r="G21">
-        <v>0.0006726251111948692</v>
+        <v>0.0006726251113109848</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.884855886699313</v>
+        <v>7.884855886699029</v>
       </c>
       <c r="C22">
-        <v>2.283282165834521</v>
+        <v>2.283282165834578</v>
       </c>
       <c r="D22">
-        <v>0.6314726412723246</v>
+        <v>0.6314726412729215</v>
       </c>
       <c r="E22">
         <v>3.214297175114183</v>
       </c>
       <c r="F22">
-        <v>12.94011826465419</v>
+        <v>12.94011826465396</v>
       </c>
       <c r="G22">
-        <v>0.0006582287120910494</v>
+        <v>0.0006582287121062101</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.489036152901633</v>
+        <v>7.489036152902031</v>
       </c>
       <c r="C23">
-        <v>2.165170641705345</v>
+        <v>2.165170641705231</v>
       </c>
       <c r="D23">
-        <v>0.6008726161218192</v>
+        <v>0.6008726161217339</v>
       </c>
       <c r="E23">
-        <v>3.036372557752145</v>
+        <v>3.036372557752216</v>
       </c>
       <c r="F23">
-        <v>12.31568343274768</v>
+        <v>12.3156834327479</v>
       </c>
       <c r="G23">
-        <v>0.0006659818291816169</v>
+        <v>0.0006659818290702748</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.103567020224261</v>
+        <v>6.103567020224318</v>
       </c>
       <c r="C24">
-        <v>1.755432162946363</v>
+        <v>1.755432162945567</v>
       </c>
       <c r="D24">
-        <v>0.4948847683156714</v>
+        <v>0.4948847683155577</v>
       </c>
       <c r="E24">
-        <v>2.430101090143225</v>
+        <v>2.430101090143182</v>
       </c>
       <c r="F24">
-        <v>10.13367983991679</v>
+        <v>10.13367983991662</v>
       </c>
       <c r="G24">
-        <v>0.0006940760913752295</v>
+        <v>0.0006940760912868276</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.768922536538696</v>
+        <v>4.768922536538582</v>
       </c>
       <c r="C25">
-        <v>1.365482018976422</v>
+        <v>1.36548201897682</v>
       </c>
       <c r="D25">
-        <v>0.3945066067681182</v>
+        <v>0.3945066067678482</v>
       </c>
       <c r="E25">
-        <v>1.867542477264138</v>
+        <v>1.867542477264152</v>
       </c>
       <c r="F25">
-        <v>8.040232194133864</v>
+        <v>8.040232194134006</v>
       </c>
       <c r="G25">
-        <v>0.0007229166984993143</v>
+        <v>0.0007229166983810148</v>
       </c>
       <c r="H25">
         <v>0</v>

--- a/Code/Results/Cases/Case_7_19/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_19/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,40 +415,46 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.869090591705799</v>
+        <v>3.593399155242878</v>
       </c>
       <c r="C2">
-        <v>1.104745911582341</v>
+        <v>1.190932597971539</v>
       </c>
       <c r="D2">
-        <v>0.3278482989886555</v>
+        <v>0.01851205494618924</v>
       </c>
       <c r="E2">
-        <v>1.49865416990626</v>
+        <v>1.410884550025315</v>
       </c>
       <c r="F2">
-        <v>6.635873520255501</v>
+        <v>0.8163137702869392</v>
       </c>
       <c r="G2">
-        <v>0.0007437127231881835</v>
+        <v>0.7419107305042303</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.01768800707693052</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.4478050212772189</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.2499697106076866</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -462,40 +468,46 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.292915343289394</v>
+        <v>3.125275632763362</v>
       </c>
       <c r="C3">
-        <v>0.9385230912516533</v>
+        <v>1.037415503627273</v>
       </c>
       <c r="D3">
-        <v>0.2856247266609131</v>
+        <v>0.01745890352674451</v>
       </c>
       <c r="E3">
-        <v>1.266429032206858</v>
+        <v>1.225193036242104</v>
       </c>
       <c r="F3">
-        <v>5.740628530079647</v>
+        <v>0.7310916528975184</v>
       </c>
       <c r="G3">
-        <v>0.0007578030578985436</v>
+        <v>0.6606814728284149</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.01271523133882385</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.4169168466691247</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.242510182925372</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -509,40 +521,46 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.95132782415709</v>
+        <v>2.838536024306109</v>
       </c>
       <c r="C4">
-        <v>0.8401863449112454</v>
+        <v>0.9434386847131577</v>
       </c>
       <c r="D4">
-        <v>0.2607697280726313</v>
+        <v>0.01679991657607971</v>
       </c>
       <c r="E4">
-        <v>1.130126361199302</v>
+        <v>1.111963865411667</v>
       </c>
       <c r="F4">
-        <v>5.211660616999438</v>
+        <v>0.680559929690645</v>
       </c>
       <c r="G4">
-        <v>0.0007665192321175581</v>
+        <v>0.6126329329588174</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.009995113068073793</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.3989701157530021</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.2389694852516264</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -556,40 +574,46 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.814651053569605</v>
+        <v>2.721804338249058</v>
       </c>
       <c r="C5">
-        <v>0.8008737998413835</v>
+        <v>0.9051928810091567</v>
       </c>
       <c r="D5">
-        <v>0.2508628126615662</v>
+        <v>0.01652829215493767</v>
       </c>
       <c r="E5">
-        <v>1.075863128695559</v>
+        <v>1.065981309993646</v>
       </c>
       <c r="F5">
-        <v>5.00042711176323</v>
+        <v>0.660377029390844</v>
       </c>
       <c r="G5">
-        <v>0.0007700955536774233</v>
+        <v>0.5934673102230903</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.008962592547806375</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.3918920722303056</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.2377684934597326</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -603,40 +627,46 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.792094130573275</v>
+        <v>2.702426628716637</v>
       </c>
       <c r="C6">
-        <v>0.7943873037302183</v>
+        <v>0.8988446685933695</v>
       </c>
       <c r="D6">
-        <v>0.2492299167689964</v>
+        <v>0.01648300401679492</v>
       </c>
       <c r="E6">
-        <v>1.066922367830301</v>
+        <v>1.058354480289509</v>
       </c>
       <c r="F6">
-        <v>4.965589858726446</v>
+        <v>0.6570492031813444</v>
       </c>
       <c r="G6">
-        <v>0.0007706910879488078</v>
+        <v>0.5903086539155709</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.008795509853945976</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.3907304023576188</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.2375831294123785</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -650,40 +680,46 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.949474991802788</v>
+        <v>2.83696133769854</v>
       </c>
       <c r="C7">
-        <v>0.8396532948884499</v>
+        <v>0.942922710187247</v>
       </c>
       <c r="D7">
-        <v>0.2606352797065625</v>
+        <v>0.01679626578870241</v>
       </c>
       <c r="E7">
-        <v>1.129389718380892</v>
+        <v>1.111343132912992</v>
       </c>
       <c r="F7">
-        <v>5.2087954061559</v>
+        <v>0.6802861331477175</v>
       </c>
       <c r="G7">
-        <v>0.0007665673550295595</v>
+        <v>0.6123728373506054</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.00998089064689181</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.3988737322119391</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.2389523338778439</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -697,40 +733,46 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.667541012287643</v>
+        <v>3.431811437582439</v>
       </c>
       <c r="C8">
-        <v>1.046543339692022</v>
+        <v>1.137928103985701</v>
       </c>
       <c r="D8">
-        <v>0.3130363585852649</v>
+        <v>0.01815149874765964</v>
       </c>
       <c r="E8">
-        <v>1.417080811465297</v>
+        <v>1.34667102927655</v>
       </c>
       <c r="F8">
-        <v>6.322315476670383</v>
+        <v>0.7865304103663817</v>
       </c>
       <c r="G8">
-        <v>0.0007485629913835881</v>
+        <v>0.713495957789263</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.01589938529077795</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.4369304266781313</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.2471698056397109</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -744,40 +786,46 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.202712292611352</v>
+        <v>4.606618156622801</v>
       </c>
       <c r="C9">
-        <v>1.49176652919158</v>
+        <v>1.523615703164978</v>
       </c>
       <c r="D9">
-        <v>0.4269393464068685</v>
+        <v>0.0207113014741438</v>
       </c>
       <c r="E9">
-        <v>2.048269869642965</v>
+        <v>1.816263108591656</v>
       </c>
       <c r="F9">
-        <v>8.719465186564577</v>
+        <v>1.011166617209128</v>
       </c>
       <c r="G9">
-        <v>0.0007133136490426167</v>
+        <v>0.9284647558880152</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.03052650795354461</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.5206512989476551</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.2724752057915154</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -791,40 +839,46 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.463671731928457</v>
+        <v>5.476620752720066</v>
       </c>
       <c r="C10">
-        <v>1.86140877546984</v>
+        <v>1.802394608164036</v>
       </c>
       <c r="D10">
-        <v>0.5222620816064136</v>
+        <v>0.02362163278348461</v>
       </c>
       <c r="E10">
-        <v>2.585351906101806</v>
+        <v>2.06341817530388</v>
       </c>
       <c r="F10">
-        <v>10.70012950174964</v>
+        <v>1.165772646181964</v>
       </c>
       <c r="G10">
-        <v>0.0006866164722724575</v>
+        <v>1.073556373520745</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.04260581552607601</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.5762637225591902</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.2880194507065283</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -838,40 +892,46 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.08447099076642</v>
+        <v>5.853810721749312</v>
       </c>
       <c r="C11">
-        <v>2.044950820287681</v>
+        <v>1.859086708477491</v>
       </c>
       <c r="D11">
-        <v>0.5697417279151011</v>
+        <v>0.03611048258129301</v>
       </c>
       <c r="E11">
-        <v>2.856771504377079</v>
+        <v>1.360153233847825</v>
       </c>
       <c r="F11">
-        <v>11.67785285994677</v>
+        <v>1.041527160240236</v>
       </c>
       <c r="G11">
-        <v>0.0006740234844669336</v>
+        <v>0.9237109386927074</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.05753352835605341</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.4948883986164958</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.2157892321060153</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -885,40 +945,46 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.328571152714005</v>
+        <v>5.989231445163682</v>
       </c>
       <c r="C12">
-        <v>2.117427780801791</v>
+        <v>1.847865869622524</v>
       </c>
       <c r="D12">
-        <v>0.5885073197268866</v>
+        <v>0.04836646578282711</v>
       </c>
       <c r="E12">
-        <v>2.964870090642719</v>
+        <v>0.8490502031085754</v>
       </c>
       <c r="F12">
-        <v>12.06264309303918</v>
+        <v>0.9110131142293909</v>
       </c>
       <c r="G12">
-        <v>0.0006691567473187108</v>
+        <v>0.7779470751950868</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.09240635282015575</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.4194792712570461</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.1594984643255799</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -932,40 +998,46 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.275554054881354</v>
+        <v>5.945068575752202</v>
       </c>
       <c r="C13">
-        <v>2.101670983166912</v>
+        <v>1.783998751356705</v>
       </c>
       <c r="D13">
-        <v>0.58442696306318</v>
+        <v>0.0609258143815623</v>
       </c>
       <c r="E13">
-        <v>2.9413234769562</v>
+        <v>0.457509718892247</v>
       </c>
       <c r="F13">
-        <v>11.97905445325642</v>
+        <v>0.768544567449652</v>
       </c>
       <c r="G13">
-        <v>0.000670209921296639</v>
+        <v>0.6273717079913581</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1439517815095286</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.3444101897718639</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.1118618492392898</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -979,40 +1051,46 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.104356758335484</v>
+        <v>5.833386074283453</v>
       </c>
       <c r="C14">
-        <v>2.050848538597563</v>
+        <v>1.716051769071782</v>
       </c>
       <c r="D14">
-        <v>0.5712684574924367</v>
+        <v>0.0700036684372094</v>
       </c>
       <c r="E14">
-        <v>2.865547999805955</v>
+        <v>0.2568032238173785</v>
       </c>
       <c r="F14">
-        <v>11.70919345391184</v>
+        <v>0.6655515406649357</v>
       </c>
       <c r="G14">
-        <v>0.0006736252979270636</v>
+        <v>0.5225364635372642</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1903699799539567</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2932496939194209</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.08372483834898148</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1026,40 +1104,46 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.000748072547253</v>
+        <v>5.76778405847989</v>
       </c>
       <c r="C15">
-        <v>2.020133084845099</v>
+        <v>1.688438017249041</v>
       </c>
       <c r="D15">
-        <v>0.5633178486193913</v>
+        <v>0.07193380838236152</v>
       </c>
       <c r="E15">
-        <v>2.819877994524234</v>
+        <v>0.2166533980084573</v>
       </c>
       <c r="F15">
-        <v>11.54591643366132</v>
+        <v>0.637236337202566</v>
       </c>
       <c r="G15">
-        <v>0.0006757033356953674</v>
+        <v>0.4947389262320314</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.2018610070087732</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2803098494731415</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.07769689662934809</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1073,40 +1157,46 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.424223654654156</v>
+        <v>5.40114649727559</v>
       </c>
       <c r="C16">
-        <v>1.849782383922218</v>
+        <v>1.58336019487507</v>
       </c>
       <c r="D16">
-        <v>0.5192570740188955</v>
+        <v>0.06756555118886354</v>
       </c>
       <c r="E16">
-        <v>2.568268379124973</v>
+        <v>0.2082985967863564</v>
       </c>
       <c r="F16">
-        <v>10.63804998064421</v>
+        <v>0.6025336634774021</v>
       </c>
       <c r="G16">
-        <v>0.0006874278298682925</v>
+        <v>0.4662412897739188</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1852683315164825</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2728599447495554</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.08056317122714418</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1120,40 +1210,46 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.083985265651791</v>
+        <v>5.179938448947269</v>
       </c>
       <c r="C17">
-        <v>1.749679255050467</v>
+        <v>1.538650716762731</v>
       </c>
       <c r="D17">
-        <v>0.4933995490308121</v>
+        <v>0.05932622326491099</v>
       </c>
       <c r="E17">
-        <v>2.421703187807367</v>
+        <v>0.2939974337294515</v>
       </c>
       <c r="F17">
-        <v>10.10289414216473</v>
+        <v>0.6296598307000068</v>
       </c>
       <c r="G17">
-        <v>0.0006944852373501378</v>
+        <v>0.4986710303924298</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1459852384093807</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.2937704487117117</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.09718364644700372</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1167,40 +1263,46 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.892560823670976</v>
+        <v>5.058129924321292</v>
       </c>
       <c r="C18">
-        <v>1.693493160134778</v>
+        <v>1.540668810030922</v>
       </c>
       <c r="D18">
-        <v>0.478899759978674</v>
+        <v>0.04782821592461772</v>
       </c>
       <c r="E18">
-        <v>2.339843746202632</v>
+        <v>0.5344788219538898</v>
       </c>
       <c r="F18">
-        <v>9.802041018714277</v>
+        <v>0.7165819727051712</v>
       </c>
       <c r="G18">
-        <v>0.0006985048256222988</v>
+        <v>0.5927848449221358</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.09403442876331525</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.3439481642316053</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.1312431397737335</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1214,40 +1316,46 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.82842556212114</v>
+        <v>5.025939801285347</v>
       </c>
       <c r="C19">
-        <v>1.674689419313438</v>
+        <v>1.580883739262276</v>
       </c>
       <c r="D19">
-        <v>0.4740495448540401</v>
+        <v>0.03595570900667155</v>
       </c>
       <c r="E19">
-        <v>2.312511968272219</v>
+        <v>0.9820848771090738</v>
       </c>
       <c r="F19">
-        <v>9.701283292199179</v>
+        <v>0.8524780451863734</v>
       </c>
       <c r="G19">
-        <v>0.0006998598192032284</v>
+        <v>0.7400471681625902</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.0525696372424278</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.4186966413203521</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.1831292917426381</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1261,40 +1369,46 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.119748412428123</v>
+        <v>5.247286550185208</v>
       </c>
       <c r="C20">
-        <v>1.760186838715185</v>
+        <v>1.728583310417491</v>
       </c>
       <c r="D20">
-        <v>0.4961123540601875</v>
+        <v>0.02289973676301216</v>
       </c>
       <c r="E20">
-        <v>2.437044104630644</v>
+        <v>1.993686088788266</v>
       </c>
       <c r="F20">
-        <v>10.159120970077</v>
+        <v>1.123241501244266</v>
       </c>
       <c r="G20">
-        <v>0.000693738273414189</v>
+        <v>1.033375075541585</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.03920202977026177</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.5606019586845434</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.2829867689746308</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1308,40 +1422,46 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.154374863364865</v>
+        <v>5.923155387697022</v>
       </c>
       <c r="C21">
-        <v>2.065688090290678</v>
+        <v>1.956751501354347</v>
       </c>
       <c r="D21">
-        <v>0.5751101848302937</v>
+        <v>0.02344163980971459</v>
       </c>
       <c r="E21">
-        <v>2.887646484235418</v>
+        <v>2.349837844410771</v>
       </c>
       <c r="F21">
-        <v>11.78802886964689</v>
+        <v>1.283202485131895</v>
       </c>
       <c r="G21">
-        <v>0.0006726251113109848</v>
+        <v>1.190600202599086</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.05107418920005014</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.6260182856435392</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.3131573512185497</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1355,40 +1475,46 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.884855886699029</v>
+        <v>6.366881906569745</v>
       </c>
       <c r="C22">
-        <v>2.283282165834578</v>
+        <v>2.102962126747911</v>
       </c>
       <c r="D22">
-        <v>0.6314726412729215</v>
+        <v>0.02433624317491834</v>
       </c>
       <c r="E22">
-        <v>3.214297175114183</v>
+        <v>2.531371402559984</v>
       </c>
       <c r="F22">
-        <v>12.94011826465396</v>
+        <v>1.379308676104671</v>
       </c>
       <c r="G22">
-        <v>0.0006582287121062101</v>
+        <v>1.283627095860169</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.05892426443049459</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.6640158465293098</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.329534309104325</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1402,40 +1528,46 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.489036152902031</v>
+        <v>6.129722197640774</v>
       </c>
       <c r="C23">
-        <v>2.165170641705231</v>
+        <v>2.024802086232626</v>
       </c>
       <c r="D23">
-        <v>0.6008726161217339</v>
+        <v>0.02385952022579829</v>
       </c>
       <c r="E23">
-        <v>3.036372557752216</v>
+        <v>2.434241433613707</v>
       </c>
       <c r="F23">
-        <v>12.3156834327479</v>
+        <v>1.327674580085116</v>
       </c>
       <c r="G23">
-        <v>0.0006659818290702748</v>
+        <v>1.233621725909387</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.05467205140545328</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.6435572360121284</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.3206200704949111</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1449,40 +1581,46 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.103567020224318</v>
+        <v>5.238257509720881</v>
       </c>
       <c r="C24">
-        <v>1.755432162945567</v>
+        <v>1.731299015474292</v>
       </c>
       <c r="D24">
-        <v>0.4948847683155577</v>
+        <v>0.02203676198255522</v>
       </c>
       <c r="E24">
-        <v>2.430101090143182</v>
+        <v>2.071309334101088</v>
       </c>
       <c r="F24">
-        <v>10.13367983991662</v>
+        <v>1.139167129302024</v>
       </c>
       <c r="G24">
-        <v>0.0006940760912868276</v>
+        <v>1.051579046980763</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.03986205603705351</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.5697843399895248</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.2904733615186643</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1496,40 +1634,46 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.768922536538582</v>
+        <v>4.287483574346879</v>
       </c>
       <c r="C25">
-        <v>1.36548201897682</v>
+        <v>1.418769228114115</v>
       </c>
       <c r="D25">
-        <v>0.3945066067678482</v>
+        <v>0.02002914870986672</v>
       </c>
       <c r="E25">
-        <v>1.867542477264152</v>
+        <v>1.688077532686862</v>
       </c>
       <c r="F25">
-        <v>8.040232194134006</v>
+        <v>0.9483486476158873</v>
       </c>
       <c r="G25">
-        <v>0.0007229166983810148</v>
+        <v>0.8682035013000444</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.02619045999602854</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.4968797951577244</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.2645062237852116</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,6 +1685,12 @@
         <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_7_19/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_19/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,46 +421,52 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.593399155242878</v>
+        <v>3.570668563786739</v>
       </c>
       <c r="C2">
-        <v>1.190932597971539</v>
+        <v>1.28434382985796</v>
       </c>
       <c r="D2">
-        <v>0.01851205494618924</v>
+        <v>0.02394679519055387</v>
       </c>
       <c r="E2">
-        <v>1.410884550025315</v>
+        <v>1.398068415959415</v>
       </c>
       <c r="F2">
-        <v>0.8163137702869392</v>
+        <v>0.7311196168467546</v>
       </c>
       <c r="G2">
-        <v>0.7419107305042303</v>
+        <v>0.6301949297847216</v>
       </c>
       <c r="H2">
-        <v>0.01768800707693052</v>
+        <v>0.01617999290556005</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.4478050212772189</v>
+        <v>0.4545219201963704</v>
       </c>
       <c r="K2">
-        <v>0.2499697106076866</v>
+        <v>0.2056556501911153</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1380311362869975</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.0422254172387575</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -474,46 +480,52 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.125275632763362</v>
+        <v>3.110192719882775</v>
       </c>
       <c r="C3">
-        <v>1.037415503627273</v>
+        <v>1.11160741400613</v>
       </c>
       <c r="D3">
-        <v>0.01745890352674451</v>
+        <v>0.02175909191231185</v>
       </c>
       <c r="E3">
-        <v>1.225193036242104</v>
+        <v>1.216005464296742</v>
       </c>
       <c r="F3">
-        <v>0.7310916528975184</v>
+        <v>0.6629558217150304</v>
       </c>
       <c r="G3">
-        <v>0.6606814728284149</v>
+        <v>0.5664050939146961</v>
       </c>
       <c r="H3">
-        <v>0.01271523133882385</v>
+        <v>0.01172294930263845</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.4169168466691247</v>
+        <v>0.4306203319456188</v>
       </c>
       <c r="K3">
-        <v>0.242510182925372</v>
+        <v>0.2059234785564499</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1437388390771979</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.03608222626268542</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -527,46 +539,52 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.838536024306109</v>
+        <v>2.827657448243372</v>
       </c>
       <c r="C4">
-        <v>0.9434386847131577</v>
+        <v>1.006054351805233</v>
       </c>
       <c r="D4">
-        <v>0.01679991657607971</v>
+        <v>0.02041307806436166</v>
       </c>
       <c r="E4">
-        <v>1.111963865411667</v>
+        <v>1.104811736080848</v>
       </c>
       <c r="F4">
-        <v>0.680559929690645</v>
+        <v>0.6223481687750905</v>
       </c>
       <c r="G4">
-        <v>0.6126329329588174</v>
+        <v>0.5287277691065952</v>
       </c>
       <c r="H4">
-        <v>0.009995113068073793</v>
+        <v>0.009272862021950143</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3989701157530021</v>
+        <v>0.4163677090755584</v>
       </c>
       <c r="K4">
-        <v>0.2389694852516264</v>
+        <v>0.2067950251254196</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1474314942738424</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.03320372821375805</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -580,46 +598,52 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.721804338249058</v>
+        <v>2.712532215031899</v>
       </c>
       <c r="C5">
-        <v>0.9051928810091567</v>
+        <v>0.9631485450092896</v>
       </c>
       <c r="D5">
-        <v>0.01652829215493767</v>
+        <v>0.01986395635216454</v>
       </c>
       <c r="E5">
-        <v>1.065981309993646</v>
+        <v>1.059616916449741</v>
       </c>
       <c r="F5">
-        <v>0.660377029390844</v>
+        <v>0.6060819568689624</v>
       </c>
       <c r="G5">
-        <v>0.5934673102230903</v>
+        <v>0.5137097045491572</v>
       </c>
       <c r="H5">
-        <v>0.008962592547806375</v>
+        <v>0.008339946261911202</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3918920722303056</v>
+        <v>0.4106561322382447</v>
       </c>
       <c r="K5">
-        <v>0.2377684934597326</v>
+        <v>0.207314885622651</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1489829189910061</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.03224458323451351</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -633,46 +657,52 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.702426628716637</v>
+        <v>2.693415267762362</v>
       </c>
       <c r="C6">
-        <v>0.8988446685933695</v>
+        <v>0.9560300357610458</v>
       </c>
       <c r="D6">
-        <v>0.01648300401679492</v>
+        <v>0.01977274097810522</v>
       </c>
       <c r="E6">
-        <v>1.058354480289509</v>
+        <v>1.052118554527894</v>
       </c>
       <c r="F6">
-        <v>0.6570492031813444</v>
+        <v>0.6033970958438246</v>
       </c>
       <c r="G6">
-        <v>0.5903086539155709</v>
+        <v>0.5112351482894439</v>
       </c>
       <c r="H6">
-        <v>0.008795509853945976</v>
+        <v>0.008188808269387227</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3907304023576188</v>
+        <v>0.4097132771485974</v>
       </c>
       <c r="K6">
-        <v>0.2375831294123785</v>
+        <v>0.2074107853091043</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1492433304692717</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.03209793072135803</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -686,46 +716,52 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.83696133769854</v>
+        <v>2.826004469479642</v>
       </c>
       <c r="C7">
-        <v>0.942922710187247</v>
+        <v>1.004239912518557</v>
       </c>
       <c r="D7">
-        <v>0.01679626578870241</v>
+        <v>0.02052317006515381</v>
       </c>
       <c r="E7">
-        <v>1.111343132912992</v>
+        <v>1.104130117725589</v>
       </c>
       <c r="F7">
-        <v>0.6802861331477175</v>
+        <v>0.6199072789620672</v>
       </c>
       <c r="G7">
-        <v>0.6123728373506054</v>
+        <v>0.5315906739048586</v>
       </c>
       <c r="H7">
-        <v>0.00998089064689181</v>
+        <v>0.009252844471792795</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3988737322119391</v>
+        <v>0.4092114464247345</v>
       </c>
       <c r="K7">
-        <v>0.2389523338778439</v>
+        <v>0.2059260800122686</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.147030024109668</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.03294567450007335</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -739,46 +775,52 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.431811437582439</v>
+        <v>3.411478310190148</v>
       </c>
       <c r="C8">
-        <v>1.137928103985701</v>
+        <v>1.220489800286089</v>
       </c>
       <c r="D8">
-        <v>0.01815149874765964</v>
+        <v>0.02359861076115521</v>
       </c>
       <c r="E8">
-        <v>1.34667102927655</v>
+        <v>1.334904230538157</v>
       </c>
       <c r="F8">
-        <v>0.7865304103663817</v>
+        <v>0.6999703154075263</v>
       </c>
       <c r="G8">
-        <v>0.713495957789263</v>
+        <v>0.6181420314897963</v>
       </c>
       <c r="H8">
-        <v>0.01589938529077795</v>
+        <v>0.01455171659413135</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.4369304266781313</v>
+        <v>0.4229318456962972</v>
       </c>
       <c r="K8">
-        <v>0.2471698056397109</v>
+        <v>0.2027471891313652</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1386961996892992</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.03901014185246687</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -792,46 +834,52 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.606618156622801</v>
+        <v>4.563520390428948</v>
       </c>
       <c r="C9">
-        <v>1.523615703164978</v>
+        <v>1.654036804324221</v>
       </c>
       <c r="D9">
-        <v>0.0207113014741438</v>
+        <v>0.02917583566917514</v>
       </c>
       <c r="E9">
-        <v>1.816263108591656</v>
+        <v>1.793954149541918</v>
       </c>
       <c r="F9">
-        <v>1.011166617209128</v>
+        <v>0.8764063767619632</v>
       </c>
       <c r="G9">
-        <v>0.9284647558880152</v>
+        <v>0.790379558620856</v>
       </c>
       <c r="H9">
-        <v>0.03052650795354461</v>
+        <v>0.02755305079131931</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.5206512989476551</v>
+        <v>0.4788967525913392</v>
       </c>
       <c r="K9">
-        <v>0.2724752057915154</v>
+        <v>0.2059210700860632</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1254212728988868</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.05938165770374582</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -845,46 +893,52 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.476620752720066</v>
+        <v>5.412530506260282</v>
       </c>
       <c r="C10">
-        <v>1.802394608164036</v>
+        <v>1.957701615503368</v>
       </c>
       <c r="D10">
-        <v>0.02362163278348461</v>
+        <v>0.03523627462030277</v>
       </c>
       <c r="E10">
-        <v>2.06341817530388</v>
+        <v>2.032177652593532</v>
       </c>
       <c r="F10">
-        <v>1.165772646181964</v>
+        <v>0.9835794640059561</v>
       </c>
       <c r="G10">
-        <v>1.073556373520745</v>
+        <v>0.9255082569554247</v>
       </c>
       <c r="H10">
-        <v>0.04260581552607601</v>
+        <v>0.03810572673438006</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.5762637225591902</v>
+        <v>0.473745482255751</v>
       </c>
       <c r="K10">
-        <v>0.2880194507065283</v>
+        <v>0.2015686915815671</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1126125398201019</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.07499250305354721</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -898,46 +952,52 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.853810721749312</v>
+        <v>5.783019410227155</v>
       </c>
       <c r="C11">
-        <v>1.859086708477491</v>
+        <v>1.981848463223855</v>
       </c>
       <c r="D11">
-        <v>0.03611048258129301</v>
+        <v>0.05165807852811355</v>
       </c>
       <c r="E11">
-        <v>1.360153233847825</v>
+        <v>1.331826506135286</v>
       </c>
       <c r="F11">
-        <v>1.041527160240236</v>
+        <v>0.8572342262135209</v>
       </c>
       <c r="G11">
-        <v>0.9237109386927074</v>
+        <v>0.84206852662426</v>
       </c>
       <c r="H11">
-        <v>0.05753352835605341</v>
+        <v>0.05298147112586449</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.4948883986164958</v>
+        <v>0.3378914019187818</v>
       </c>
       <c r="K11">
-        <v>0.2157892321060153</v>
+        <v>0.1415749600185947</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.08719491271914492</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.05725253074497516</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -951,46 +1011,52 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.989231445163682</v>
+        <v>5.917562505314322</v>
       </c>
       <c r="C12">
-        <v>1.847865869622524</v>
+        <v>1.942737162183789</v>
       </c>
       <c r="D12">
-        <v>0.04836646578282711</v>
+        <v>0.06591675484262538</v>
       </c>
       <c r="E12">
-        <v>0.8490502031085754</v>
+        <v>0.8247522096933153</v>
       </c>
       <c r="F12">
-        <v>0.9110131142293909</v>
+        <v>0.7427341577886466</v>
       </c>
       <c r="G12">
-        <v>0.7779470751950868</v>
+        <v>0.7373432120941175</v>
       </c>
       <c r="H12">
-        <v>0.09240635282015575</v>
+        <v>0.08808094611077877</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.4194792712570461</v>
+        <v>0.259683620318981</v>
       </c>
       <c r="K12">
-        <v>0.1594984643255799</v>
+        <v>0.1016121077448418</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.07245241562420901</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.04228882500940756</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1004,46 +1070,52 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.945068575752202</v>
+        <v>5.877250013229684</v>
       </c>
       <c r="C13">
-        <v>1.783998751356705</v>
+        <v>1.856407464538961</v>
       </c>
       <c r="D13">
-        <v>0.0609258143815623</v>
+        <v>0.0781014087097418</v>
       </c>
       <c r="E13">
-        <v>0.457509718892247</v>
+        <v>0.4378990289566218</v>
       </c>
       <c r="F13">
-        <v>0.768544567449652</v>
+        <v>0.6334342901592009</v>
       </c>
       <c r="G13">
-        <v>0.6273717079913581</v>
+        <v>0.6058814594450581</v>
       </c>
       <c r="H13">
-        <v>0.1439517815095286</v>
+        <v>0.1400721655568162</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3444101897718639</v>
+        <v>0.2206871094912088</v>
       </c>
       <c r="K13">
-        <v>0.1118618492392898</v>
+        <v>0.07367415782953302</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.06366479623638277</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.02906016595958327</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1057,46 +1129,52 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.833386074283453</v>
+        <v>5.770159193572056</v>
       </c>
       <c r="C14">
-        <v>1.716051769071782</v>
+        <v>1.775069199163227</v>
       </c>
       <c r="D14">
-        <v>0.0700036684372094</v>
+        <v>0.08559861862563878</v>
       </c>
       <c r="E14">
-        <v>0.2568032238173785</v>
+        <v>0.2404400009341856</v>
       </c>
       <c r="F14">
-        <v>0.6655515406649357</v>
+        <v>0.5592943436127626</v>
       </c>
       <c r="G14">
-        <v>0.5225364635372642</v>
+        <v>0.5061743370896892</v>
       </c>
       <c r="H14">
-        <v>0.1903699799539567</v>
+        <v>0.1868673634214986</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2932496939194209</v>
+        <v>0.2067813441594382</v>
       </c>
       <c r="K14">
-        <v>0.08372483834898148</v>
+        <v>0.05929234484313817</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.059765186912899</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.02086808392046713</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1110,46 +1188,52 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.76778405847989</v>
+        <v>5.706658535371389</v>
       </c>
       <c r="C15">
-        <v>1.688438017249041</v>
+        <v>1.7450546627378</v>
       </c>
       <c r="D15">
-        <v>0.07193380838236152</v>
+        <v>0.08664449513653238</v>
       </c>
       <c r="E15">
-        <v>0.2166533980084573</v>
+        <v>0.2012307992014257</v>
       </c>
       <c r="F15">
-        <v>0.637236337202566</v>
+        <v>0.5408279644106244</v>
       </c>
       <c r="G15">
-        <v>0.4947389262320314</v>
+        <v>0.4768943872097537</v>
       </c>
       <c r="H15">
-        <v>0.2018610070087732</v>
+        <v>0.1985049283078268</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2803098494731415</v>
+        <v>0.2083538751605261</v>
       </c>
       <c r="K15">
-        <v>0.07769689662934809</v>
+        <v>0.05704152262733153</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.05944924660177886</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.01888951166804809</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1163,46 +1247,52 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.40114649727559</v>
+        <v>5.349445993595907</v>
       </c>
       <c r="C16">
-        <v>1.58336019487507</v>
+        <v>1.646121672921652</v>
       </c>
       <c r="D16">
-        <v>0.06756555118886354</v>
+        <v>0.07856280170729946</v>
       </c>
       <c r="E16">
-        <v>0.2082985967863564</v>
+        <v>0.194906253019365</v>
       </c>
       <c r="F16">
-        <v>0.6025336634774021</v>
+        <v>0.5325744434214599</v>
       </c>
       <c r="G16">
-        <v>0.4662412897739188</v>
+        <v>0.4272540796273461</v>
       </c>
       <c r="H16">
-        <v>0.1852683315164825</v>
+        <v>0.1824942278790047</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2728599447495554</v>
+        <v>0.2529732950115715</v>
       </c>
       <c r="K16">
-        <v>0.08056317122714418</v>
+        <v>0.06608156174394431</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.06489413750759354</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.01747869047392925</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1216,46 +1306,52 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.179938448947269</v>
+        <v>5.132819687659378</v>
       </c>
       <c r="C17">
-        <v>1.538650716762731</v>
+        <v>1.611183529250582</v>
       </c>
       <c r="D17">
-        <v>0.05932622326491099</v>
+        <v>0.06900188549993658</v>
       </c>
       <c r="E17">
-        <v>0.2939974337294515</v>
+        <v>0.2806858640489764</v>
       </c>
       <c r="F17">
-        <v>0.6296598307000068</v>
+        <v>0.5637337096503572</v>
       </c>
       <c r="G17">
-        <v>0.4986710303924298</v>
+        <v>0.4430102456449987</v>
       </c>
       <c r="H17">
-        <v>0.1459852384093807</v>
+        <v>0.1434538375149259</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2937704487117117</v>
+        <v>0.2933501677953529</v>
       </c>
       <c r="K17">
-        <v>0.09718364644700372</v>
+        <v>0.08097773352366922</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.0718109355518699</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.02040143566296138</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1269,46 +1365,52 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.058129924321292</v>
+        <v>5.012303393194884</v>
       </c>
       <c r="C18">
-        <v>1.540668810030922</v>
+        <v>1.630251911394112</v>
       </c>
       <c r="D18">
-        <v>0.04782821592461772</v>
+        <v>0.05732615042804667</v>
       </c>
       <c r="E18">
-        <v>0.5344788219538898</v>
+        <v>0.5194822952461706</v>
       </c>
       <c r="F18">
-        <v>0.7165819727051712</v>
+        <v>0.6390411000098482</v>
       </c>
       <c r="G18">
-        <v>0.5927848449221358</v>
+        <v>0.5148515031819159</v>
       </c>
       <c r="H18">
-        <v>0.09403442876331525</v>
+        <v>0.0914821765240319</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3439481642316053</v>
+        <v>0.3449767745584751</v>
       </c>
       <c r="K18">
-        <v>0.1312431397737335</v>
+        <v>0.1061443641879301</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.08217856672749413</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.02856212523359325</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1322,46 +1424,52 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.025939801285347</v>
+        <v>4.978469175493899</v>
       </c>
       <c r="C19">
-        <v>1.580883739262276</v>
+        <v>1.693655662019239</v>
       </c>
       <c r="D19">
-        <v>0.03595570900667155</v>
+        <v>0.0456139701514644</v>
       </c>
       <c r="E19">
-        <v>0.9820848771090738</v>
+        <v>0.9635475470092416</v>
       </c>
       <c r="F19">
-        <v>0.8524780451863734</v>
+        <v>0.7510372795488252</v>
       </c>
       <c r="G19">
-        <v>0.7400471681625902</v>
+        <v>0.6323462516645719</v>
       </c>
       <c r="H19">
-        <v>0.0525696372424278</v>
+        <v>0.04972051290533841</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.4186966413203521</v>
+        <v>0.4086791106722103</v>
       </c>
       <c r="K19">
-        <v>0.1831292917426381</v>
+        <v>0.1421283645256786</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.09603868483616651</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.04221953076494955</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1375,46 +1483,52 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.247286550185208</v>
+        <v>5.189514019615956</v>
       </c>
       <c r="C20">
-        <v>1.728583310417491</v>
+        <v>1.881894044113153</v>
       </c>
       <c r="D20">
-        <v>0.02289973676301216</v>
+        <v>0.03319352669459619</v>
       </c>
       <c r="E20">
-        <v>1.993686088788266</v>
+        <v>1.965226231403904</v>
       </c>
       <c r="F20">
-        <v>1.123241501244266</v>
+        <v>0.961903417355245</v>
       </c>
       <c r="G20">
-        <v>1.033375075541585</v>
+        <v>0.8769500472163401</v>
       </c>
       <c r="H20">
-        <v>0.03920202977026177</v>
+        <v>0.03517541075956299</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.5606019586845434</v>
+        <v>0.4985134478089321</v>
       </c>
       <c r="K20">
-        <v>0.2829867689746308</v>
+        <v>0.2049444688236015</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1167834965393979</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.07159881509834065</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1428,46 +1542,52 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.923155387697022</v>
+        <v>5.844191687130603</v>
       </c>
       <c r="C21">
-        <v>1.956751501354347</v>
+        <v>2.109613510844383</v>
       </c>
       <c r="D21">
-        <v>0.02344163980971459</v>
+        <v>0.03866323000869443</v>
       </c>
       <c r="E21">
-        <v>2.349837844410771</v>
+        <v>2.310814980044597</v>
       </c>
       <c r="F21">
-        <v>1.283202485131895</v>
+        <v>1.034402061709443</v>
       </c>
       <c r="G21">
-        <v>1.190600202599086</v>
+        <v>1.080037505157748</v>
       </c>
       <c r="H21">
-        <v>0.05107418920005014</v>
+        <v>0.04533752495456422</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.6260182856435392</v>
+        <v>0.39150245554832</v>
       </c>
       <c r="K21">
-        <v>0.3131573512185497</v>
+        <v>0.1984844389547291</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1058286619659086</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.08336279378309541</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1481,46 +1601,52 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.366881906569745</v>
+        <v>6.27291555393964</v>
       </c>
       <c r="C22">
-        <v>2.102962126747911</v>
+        <v>2.251229749495906</v>
       </c>
       <c r="D22">
-        <v>0.02433624317491834</v>
+        <v>0.04324291653652068</v>
       </c>
       <c r="E22">
-        <v>2.531371402559984</v>
+        <v>2.485287777705835</v>
       </c>
       <c r="F22">
-        <v>1.379308676104671</v>
+        <v>1.071111347067571</v>
       </c>
       <c r="G22">
-        <v>1.283627095860169</v>
+        <v>1.213109398335178</v>
       </c>
       <c r="H22">
-        <v>0.05892426443049459</v>
+        <v>0.05198547952026189</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.6640158465293098</v>
+        <v>0.319810683240874</v>
       </c>
       <c r="K22">
-        <v>0.329534309104325</v>
+        <v>0.1911472260679083</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.09774768077880225</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.09009536295043219</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1534,46 +1660,52 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.129722197640774</v>
+        <v>6.044204401599188</v>
       </c>
       <c r="C23">
-        <v>2.024802086232626</v>
+        <v>2.179104298423738</v>
       </c>
       <c r="D23">
-        <v>0.02385952022579829</v>
+        <v>0.04039068058300899</v>
       </c>
       <c r="E23">
-        <v>2.434241433613707</v>
+        <v>2.39217955110189</v>
       </c>
       <c r="F23">
-        <v>1.327674580085116</v>
+        <v>1.05715361472646</v>
       </c>
       <c r="G23">
-        <v>1.233621725909387</v>
+        <v>1.132495743904144</v>
       </c>
       <c r="H23">
-        <v>0.05467205140545328</v>
+        <v>0.04841657113384468</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.6435572360121284</v>
+        <v>0.3715937258043311</v>
       </c>
       <c r="K23">
-        <v>0.3206200704949111</v>
+        <v>0.1969936894883375</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1026877825112464</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.08729816013296343</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1587,46 +1719,52 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.238257509720881</v>
+        <v>5.180321806362258</v>
       </c>
       <c r="C24">
-        <v>1.731299015474292</v>
+        <v>1.887171648405683</v>
       </c>
       <c r="D24">
-        <v>0.02203676198255522</v>
+        <v>0.03220357516513417</v>
       </c>
       <c r="E24">
-        <v>2.071309334101088</v>
+        <v>2.042284368974038</v>
       </c>
       <c r="F24">
-        <v>1.139167129302024</v>
+        <v>0.9751268221318981</v>
       </c>
       <c r="G24">
-        <v>1.051579046980763</v>
+        <v>0.8908981857509133</v>
       </c>
       <c r="H24">
-        <v>0.03986205603705351</v>
+        <v>0.03578188727658649</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.5697843399895248</v>
+        <v>0.5070819937482582</v>
       </c>
       <c r="K24">
-        <v>0.2904733615186643</v>
+        <v>0.2102379929067446</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1188423004903036</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.07356224451162419</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1640,46 +1778,52 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.287483574346879</v>
+        <v>4.251337696008648</v>
       </c>
       <c r="C25">
-        <v>1.418769228114115</v>
+        <v>1.537898052084017</v>
       </c>
       <c r="D25">
-        <v>0.02002914870986672</v>
+        <v>0.02748863249740552</v>
       </c>
       <c r="E25">
-        <v>1.688077532686862</v>
+        <v>1.668982097797041</v>
       </c>
       <c r="F25">
-        <v>0.9483486476158873</v>
+        <v>0.8304000152526356</v>
       </c>
       <c r="G25">
-        <v>0.8682035013000444</v>
+        <v>0.7375829076262903</v>
       </c>
       <c r="H25">
-        <v>0.02619045999602854</v>
+        <v>0.02372754712079206</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.4968797951577244</v>
+        <v>0.4731728644779594</v>
       </c>
       <c r="K25">
-        <v>0.2645062237852116</v>
+        <v>0.205497704679253</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1293218709025119</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.05341344897819056</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -1691,6 +1835,12 @@
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
